--- a/2016.xlsx
+++ b/2016.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -160,6 +160,10 @@
   </si>
   <si>
     <t>房租</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.6*4+7.6路费；16</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -904,7 +908,7 @@
   <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1024,17 +1028,23 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
+      <c r="A11" s="4">
+        <v>42531</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="C11" s="1">
-        <f>SUM(C2:C10)</f>
-        <v>1597.2</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
+      <c r="C12" s="1">
+        <f>SUM(C2:C11)</f>
+        <v>1625.2</v>
+      </c>
     </row>
     <row r="13" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1"/>
